--- a/Aula 3 - Automacao web/Produtos atualizados.xlsx
+++ b/Aula 3 - Automacao web/Produtos atualizados.xlsx
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5.0877</v>
+        <v>5.190013</v>
       </c>
       <c r="E2" t="n">
-        <v>5087.649123</v>
+        <v>5189.96109987</v>
       </c>
       <c r="F2" t="n">
         <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>7122.7087722</v>
+        <v>7265.945539818</v>
       </c>
     </row>
     <row r="3">
@@ -512,16 +512,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5.51252295</v>
+        <v>5.608950849</v>
       </c>
       <c r="E3" t="n">
-        <v>24806.353275</v>
+        <v>25240.2788205</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>49612.70655</v>
+        <v>50480.557641</v>
       </c>
     </row>
     <row r="4">
@@ -539,16 +539,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5.0877</v>
+        <v>5.190013</v>
       </c>
       <c r="E4" t="n">
-        <v>4578.879123</v>
+        <v>4670.959799869999</v>
       </c>
       <c r="F4" t="n">
         <v>1.7</v>
       </c>
       <c r="G4" t="n">
-        <v>7784.094509099999</v>
+        <v>7940.631659778998</v>
       </c>
     </row>
     <row r="5">
@@ -566,16 +566,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5.0877</v>
+        <v>5.190013</v>
       </c>
       <c r="E5" t="n">
-        <v>4065.0723</v>
+        <v>4146.820387</v>
       </c>
       <c r="F5" t="n">
         <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>6910.622909999999</v>
+        <v>7049.594657899999</v>
       </c>
     </row>
     <row r="6">
@@ -593,16 +593,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5.51252295</v>
+        <v>5.608950849</v>
       </c>
       <c r="E6" t="n">
-        <v>16537.56885</v>
+        <v>16826.852547</v>
       </c>
       <c r="F6" t="n">
         <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>31421.380815</v>
+        <v>31971.0198393</v>
       </c>
     </row>
     <row r="7">
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5.0877</v>
+        <v>5.190013</v>
       </c>
       <c r="E7" t="n">
-        <v>2444.538096</v>
+        <v>2493.69744624</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>4889.076192</v>
+        <v>4987.39489248</v>
       </c>
     </row>
     <row r="8">
@@ -647,16 +647,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>315.12</v>
+        <v>319</v>
       </c>
       <c r="E8" t="n">
-        <v>6302.4</v>
+        <v>6380</v>
       </c>
       <c r="F8" t="n">
         <v>1.15</v>
       </c>
       <c r="G8" t="n">
-        <v>7247.759999999999</v>
+        <v>7336.999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Aula 3 - Automacao web/Produtos atualizados.xlsx
+++ b/Aula 3 - Automacao web/Produtos atualizados.xlsx
@@ -485,16 +485,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5.190013</v>
+        <v>5.077599999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>5189.96109987</v>
+        <v>5077.549223999999</v>
       </c>
       <c r="F2" t="n">
         <v>1.4</v>
       </c>
       <c r="G2" t="n">
-        <v>7265.945539818</v>
+        <v>7108.568913599999</v>
       </c>
     </row>
     <row r="3">
@@ -512,16 +512,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>5.608950849</v>
+        <v>5.5354</v>
       </c>
       <c r="E3" t="n">
-        <v>25240.2788205</v>
+        <v>24909.3</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>50480.557641</v>
+        <v>49818.6</v>
       </c>
     </row>
     <row r="4">
@@ -539,16 +539,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5.190013</v>
+        <v>5.077599999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>4670.959799869999</v>
+        <v>4569.789223999999</v>
       </c>
       <c r="F4" t="n">
         <v>1.7</v>
       </c>
       <c r="G4" t="n">
-        <v>7940.631659778998</v>
+        <v>7768.641680799999</v>
       </c>
     </row>
     <row r="5">
@@ -566,16 +566,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5.190013</v>
+        <v>5.077599999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>4146.820387</v>
+        <v>4057.002399999999</v>
       </c>
       <c r="F5" t="n">
         <v>1.7</v>
       </c>
       <c r="G5" t="n">
-        <v>7049.594657899999</v>
+        <v>6896.904079999998</v>
       </c>
     </row>
     <row r="6">
@@ -593,16 +593,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5.608950849</v>
+        <v>5.5354</v>
       </c>
       <c r="E6" t="n">
-        <v>16826.852547</v>
+        <v>16606.2</v>
       </c>
       <c r="F6" t="n">
         <v>1.9</v>
       </c>
       <c r="G6" t="n">
-        <v>31971.0198393</v>
+        <v>31551.78</v>
       </c>
     </row>
     <row r="7">
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5.190013</v>
+        <v>5.077599999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>2493.69744624</v>
+        <v>2439.685248</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>4987.39489248</v>
+        <v>4879.370496</v>
       </c>
     </row>
     <row r="8">
@@ -647,16 +647,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>319</v>
+        <v>315.67</v>
       </c>
       <c r="E8" t="n">
-        <v>6380</v>
+        <v>6313.400000000001</v>
       </c>
       <c r="F8" t="n">
         <v>1.15</v>
       </c>
       <c r="G8" t="n">
-        <v>7336.999999999999</v>
+        <v>7260.41</v>
       </c>
     </row>
   </sheetData>
